--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KF36F\OneDrive\Desktop\MIPT\Диплом\test_cmake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8A057C-18B5-4878-88A8-C0BB957B86F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33036C-EA64-4ED8-B2E0-DC806CEFCDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8CC4F7C0-8A8C-4C28-B877-1BA77026E903}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17772" windowHeight="10716" xr2:uid="{8CC4F7C0-8A8C-4C28-B877-1BA77026E903}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>n_e</t>
   </si>
@@ -60,7 +60,25 @@
     <t>масса эл</t>
   </si>
   <si>
-    <t>T период</t>
+    <t>реальных сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сколько кадров </t>
+  </si>
+  <si>
+    <t>кадр - сек</t>
+  </si>
+  <si>
+    <t>Полученный период</t>
+  </si>
+  <si>
+    <t>T период, сек</t>
+  </si>
+  <si>
+    <t>nu_pl, Гц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кадров в сек </t>
   </si>
 </sst>
 </file>
@@ -414,19 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A13DFA2-1FBB-4FAC-8AFE-9E01A23DA6A8}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,23 +473,26 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1E+17</v>
       </c>
       <c r="B2">
-        <f>0.02/100</f>
-        <v>2.0000000000000001E-4</v>
+        <f>0.02</f>
+        <v>0.02</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="1">
         <f>A2 *B2 /C2</f>
-        <v>400000000000</v>
+        <v>40000000000000</v>
       </c>
       <c r="F2" s="1">
         <v>1.5999999999999999E-19</v>
@@ -484,8 +508,49 @@
         <v>17829027348.10009</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> 2 * PI() / J2</f>
+        <f>J2 / (2 * PI())</f>
+        <v>2837577832.9707155</v>
+      </c>
+      <c r="L2">
+        <f xml:space="preserve"> 1 / K2</f>
         <v>3.5241324075085566E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f xml:space="preserve"> 46</f>
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> B5 * A5</f>
+        <v>230</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5000000000000002E-11</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5 * D5</f>
+        <v>8.0500000000000009E-9</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KF36F\OneDrive\Desktop\MIPT\Диплом\test_cmake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33036C-EA64-4ED8-B2E0-DC806CEFCDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710BD316-8342-4500-A962-D603EF69A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17772" windowHeight="10716" xr2:uid="{8CC4F7C0-8A8C-4C28-B877-1BA77026E903}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,15 +484,15 @@
         <v>1E+17</v>
       </c>
       <c r="B2">
-        <f>0.02</f>
-        <v>0.02</v>
+        <f>0.0002</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" s="1">
         <f>A2 *B2 /C2</f>
-        <v>40000000000000</v>
+        <v>400000000000</v>
       </c>
       <c r="F2" s="1">
         <v>1.5999999999999999E-19</v>
@@ -538,19 +538,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f xml:space="preserve"> 46</f>
-        <v>46</v>
+        <f xml:space="preserve"> 3</f>
+        <v>3</v>
       </c>
       <c r="C5">
         <f xml:space="preserve"> B5 * A5</f>
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>3.5000000000000002E-11</v>
       </c>
       <c r="E5" s="1">
         <f>C5 * D5</f>
-        <v>8.0500000000000009E-9</v>
+        <v>5.2500000000000005E-10</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KF36F\OneDrive\Desktop\MIPT\Диплом\test_cmake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710BD316-8342-4500-A962-D603EF69A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B311F1-8238-48A4-8BBB-FB1F316A349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17772" windowHeight="10716" xr2:uid="{8CC4F7C0-8A8C-4C28-B877-1BA77026E903}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,15 +542,15 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> B5 * A5</f>
-        <v>15</v>
+        <f xml:space="preserve"> 10</f>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>3.5000000000000002E-11</v>
       </c>
       <c r="E5" s="1">
         <f>C5 * D5</f>
-        <v>5.2500000000000005E-10</v>
+        <v>3.5000000000000003E-10</v>
       </c>
     </row>
   </sheetData>
